--- a/phoenix_api_auto_6/src/test/resources/testApiCase.xlsx
+++ b/phoenix_api_auto_6/src/test/resources/testApiCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16065" windowHeight="11670" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -54,6 +54,46 @@
   </si>
   <si>
     <t>ExpectesReponsData(期望相应数据)</t>
+  </si>
+  <si>
+    <t>ActualRespondeData(实际相应数据)</t>
+  </si>
+  <si>
+    <t>PrevalidateSql(接口执行前的脚本验证)</t>
+  </si>
+  <si>
+    <t>PrevalidateResult(接口执行前数据库)</t>
+  </si>
+  <si>
+    <t>AfterValidateSql(接口执行后脚本验证)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+{"no":"1","sql":"select count(*) as count from member where mobilephone=13800000000","exceptedResult":[{"count":"1"}]
+}
+]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"no":"2","sql":"select type,leaveAmount from member where mobilephone=13800000000","exceptedResult":[{"type":"1"},{"leaveAmount":"0.0"}]
+}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"no":"3","sql":"select id,regName from member where mobilephone=13800000000","exceptedResult":[{"id":"1"},{"regName":"happy"},{"id":"2"},{"regName":"ok"},{"id":"3"},{"regName":"nick"}]
+}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+{"no":"1","sql":"select count(*) as count from member where mobilephone=13800000000","exceptedResult":[{"count":"1"}]
+},
+{"no":"2","sql":"select type,leaveAmount from member where mobilephone=13800000000","exceptedResult":[{"type":"1"},{"leaveAmount":"0.0"}]
+},
+{"no":"3","sql":"select id,regName from member where mobilephone=13800000000","exceptedResult":[{"id":"1"},{"regName":"happy"},{"id":"2"},{"regName":"ok"},{"id":"3"},{"regName":"nick"}]
+}
+]
+</t>
   </si>
 </sst>
 </file>
@@ -61,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,7 +116,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,9 +131,77 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,8 +213,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,113 +253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +459,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,16 +517,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,45 +551,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -527,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,139 +579,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1090,64 +1136,92 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="35.625" customWidth="1"/>
+    <col min="6" max="6" width="37.375" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="121.5" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="283.5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
